--- a/Vorlagen/Jahresübersicht_Vorlage.xlsx
+++ b/Vorlagen/Jahresübersicht_Vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosma\Documents\Rechnungen\Rechnungsprogramm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosma\Documents\Rechnungen\Rechnungsprogramm_2.0\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E81EA6C-086D-4B96-B2E2-F111F42B0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9456E-27DB-4D66-903F-2E9B5D00C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="600" windowWidth="13900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,9 @@
   <cols>
     <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Vorlagen/Jahresübersicht_Vorlage.xlsx
+++ b/Vorlagen/Jahresübersicht_Vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosma\Documents\Rechnungen\Rechnungsprogramm_2.0\Vorlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brigittemacbookpro/Brigitte Aron/Rechnung__Logopädie/Abrechnungsprogramm Leander/Vorlagen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F9456E-27DB-4D66-903F-2E9B5D00C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A7BD8A-399A-0C49-B6F1-D79AE59DD2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="600" windowWidth="13900" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,8 +68,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -132,7 +132,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -146,7 +146,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -155,7 +155,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -446,18 +446,18 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="D3" s="8"/>
@@ -488,7 +488,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -501,7 +501,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
